--- a/biology/Histoire de la zoologie et de la botanique/Lise_Cloquet/Lise_Cloquet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lise_Cloquet/Lise_Cloquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lise Cloquet, également connue sous le nom d'Anne-Louise Cloquet, née en 1788[1],[2] à Paris et morte le 30 octobre 1860 dans la même ville[3], est une peintre française connue pour ses peintures des plantes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lise Cloquet, également connue sous le nom d'Anne-Louise Cloquet, née en 1788, à Paris et morte le 30 octobre 1860 dans la même ville, est une peintre française connue pour ses peintures des plantes.
 </t>
         </is>
       </c>
@@ -513,15 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-En 1783, Jean-Baptiste Cloquet épouse Claude Lajude[4]. Ils ont quatre enfants, Hippolyte, Lise, Jules, médecin[5] et Rose[6].
-Jean-Baptiste Cloquet, est illustrateur et graveur[1].
-Formation
-Lise Cloquet apprend à dessiner par son père[7]. Il enseigne le dessin à tous ses enfants, notamment au collège Sainte-Barbe[8].
-Elle est influencée par l'illustrateur botanique Pierre-Joseph Redouté[9].
-Carrière artistique
-32 de ses œuvres, dont une représentant un chrysanthème blanc, datant de 1820, sont actuellement conservées à la Oak Spring Garden Foundation à Upperville (Virginie) (en), en Virginie aux États-Unis[9],[10].
-Elle meurt à son domicile parisien à l'âge de 73 ans[3].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1783, Jean-Baptiste Cloquet épouse Claude Lajude. Ils ont quatre enfants, Hippolyte, Lise, Jules, médecin et Rose.
+Jean-Baptiste Cloquet, est illustrateur et graveur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lise_Cloquet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lise_Cloquet</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lise Cloquet apprend à dessiner par son père. Il enseigne le dessin à tous ses enfants, notamment au collège Sainte-Barbe.
+Elle est influencée par l'illustrateur botanique Pierre-Joseph Redouté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lise_Cloquet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lise_Cloquet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière artistique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32 de ses œuvres, dont une représentant un chrysanthème blanc, datant de 1820, sont actuellement conservées à la Oak Spring Garden Foundation à Upperville (Virginie) (en), en Virginie aux États-Unis,.
+Elle meurt à son domicile parisien à l'âge de 73 ans.
 </t>
         </is>
       </c>
